--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_1_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_1_22.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1112486.07125377</v>
+        <v>1113270.217191799</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18621122.00443469</v>
+        <v>18621122.00443468</v>
       </c>
     </row>
     <row r="9">
@@ -656,76 +658,76 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>31.1509994400877</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>169.0708280266249</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="J2" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,10 +737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>14.48693373137008</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -789,19 +791,19 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W3" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="X3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.5178444382804</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="C5" t="n">
         <v>205.5178444382804</v>
@@ -956,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>205.5178444382804</v>
@@ -978,10 +980,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -990,10 +992,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>43.53759146957696</v>
+        <v>36.22756455829859</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1026,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1072,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -1093,13 +1095,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>22.03399177268427</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
+      <c r="G8" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1199,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,13 +1211,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>96.97660027328105</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1233,7 +1235,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1263,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1275,10 +1277,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y9" t="n">
-        <v>181.7590175271708</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1309,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>17.55829564281238</v>
+        <v>14.83685490770588</v>
       </c>
       <c r="J10" t="n">
         <v>93.35918011667277</v>
@@ -1330,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1382,61 +1384,61 @@
         <v>205.5178444382804</v>
       </c>
       <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R11" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="H11" t="n">
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>9.211010870930394</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="I11" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1449,13 +1451,13 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>65.63780594030548</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1470,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1494,28 +1496,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>14.69006202085835</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="V12" t="n">
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0</v>
-      </c>
-      <c r="X12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1531,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1546,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1607,10 +1609,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1625,55 +1627,55 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R14" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S14" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="T14" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
       <c r="X14" t="n">
-        <v>21.16030022554292</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>169.0708280266249</v>
       </c>
     </row>
     <row r="15">
@@ -1683,10 +1685,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>107.2644082870342</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1695,19 +1697,19 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>13.66473413638039</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1737,7 +1739,7 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -1746,13 +1748,13 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1783,13 +1785,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1813,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1841,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1859,13 +1861,13 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>120.9273370453295</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1886,16 +1888,16 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1907,10 +1909,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="18">
@@ -1926,25 +1928,25 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>133.2862128302698</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>108.2953254812187</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -1980,13 +1982,13 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2047,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2078,67 +2080,67 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>200.3360962888297</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U20" t="n">
+        <v>230.2038249569697</v>
+      </c>
+      <c r="V20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2157,19 +2159,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>70.84795259427446</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2208,16 +2210,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>109.6908243215064</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2236,64 +2238,64 @@
         </is>
       </c>
       <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2330,16 +2332,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2366,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W23" t="n">
-        <v>21.18375537072436</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2394,16 +2396,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>120.5233491690344</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2412,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2448,22 +2450,22 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>55.57566235103577</v>
       </c>
     </row>
     <row r="25">
@@ -2494,13 +2496,13 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2555,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2564,16 +2566,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2615,13 +2617,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2646,7 +2648,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>96.52468151912586</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2682,25 +2684,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="28">
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2773,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2789,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2834,13 +2836,13 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>52.42556848774752</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2874,7 +2876,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>104.7383832473596</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -2922,7 +2924,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>63.88882306452221</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
@@ -2931,7 +2933,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -2962,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3007,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3038,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3047,10 +3049,10 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>1.809496073036188</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3083,16 +3085,16 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>200.3360962888297</v>
+      </c>
+      <c r="X32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V32" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3108,16 +3110,16 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>35.40726547353844</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3153,22 +3155,22 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>12.13783202721525</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3205,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>133.186967585368</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3226,7 +3228,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -3263,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
         <v>212.2853856434421</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>241.0142888776591</v>
@@ -3278,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3320,16 +3322,16 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3345,28 +3347,28 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>35.40726547353844</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>32.45190010589728</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3396,16 +3398,16 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3433,13 +3435,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3545,13 +3547,13 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.4162677022923</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3582,19 +3584,19 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>13.20847578435539</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3603,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3633,19 +3635,19 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>49.3111039422953</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -3752,55 +3754,55 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="H41" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="I41" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3910,40 +3912,40 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3974,19 +3976,19 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C44" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4019,7 +4021,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
@@ -4028,22 +4030,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>19.20171008547518</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>205.5178444382804</v>
+        <v>9.211010870930394</v>
       </c>
     </row>
     <row r="45">
@@ -4053,7 +4055,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>8.311618392921693</v>
+        <v>112.925037352301</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
@@ -4077,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4113,16 +4115,16 @@
         <v>205.5178444382804</v>
       </c>
       <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="W45" t="n">
-        <v>0</v>
-      </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4189,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>406.8838132313431</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="C2" t="n">
-        <v>406.8838132313431</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="D2" t="n">
-        <v>406.8838132313431</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="E2" t="n">
-        <v>406.8838132313431</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8838132313431</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="G2" t="n">
-        <v>406.8838132313431</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="H2" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I2" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J2" t="n">
         <v>16.44142755506243</v>
@@ -4334,10 +4336,10 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L2" t="n">
-        <v>299.5322850506434</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M2" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N2" t="n">
         <v>583.2163723184226</v>
@@ -4352,28 +4354,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R2" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S2" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="T2" t="n">
-        <v>822.0713777531216</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="U2" t="n">
-        <v>822.0713777531216</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="V2" t="n">
-        <v>822.0713777531216</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="W2" t="n">
-        <v>822.0713777531216</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="X2" t="n">
-        <v>822.0713777531216</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="Y2" t="n">
-        <v>614.4775954922324</v>
+        <v>47.90708355515102</v>
       </c>
     </row>
     <row r="3">
@@ -4383,7 +4385,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>31.07469395038575</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C3" t="n">
         <v>16.44142755506243</v>
@@ -4413,16 +4415,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L3" t="n">
-        <v>219.90409354896</v>
+        <v>142.2888212580996</v>
       </c>
       <c r="M3" t="n">
-        <v>366.5706756325438</v>
+        <v>345.7514872519972</v>
       </c>
       <c r="N3" t="n">
-        <v>366.5706756325438</v>
+        <v>549.2141532458947</v>
       </c>
       <c r="O3" t="n">
-        <v>570.0333416264414</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="P3" t="n">
         <v>752.6768192397923</v>
@@ -4437,22 +4439,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T3" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U3" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V3" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W3" t="n">
-        <v>614.4775954922324</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X3" t="n">
-        <v>406.8838132313431</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y3" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="4">
@@ -4568,19 +4570,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K5" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L5" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M5" t="n">
-        <v>469.413761616576</v>
+        <v>399.9799451336186</v>
       </c>
       <c r="N5" t="n">
-        <v>672.8764276104736</v>
+        <v>603.4426111275161</v>
       </c>
       <c r="O5" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6375612701642</v>
       </c>
       <c r="P5" t="n">
         <v>822.0713777531216</v>
@@ -4604,13 +4606,13 @@
         <v>822.0713777531216</v>
       </c>
       <c r="W5" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X5" t="n">
-        <v>431.628992076841</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y5" t="n">
-        <v>224.0352098159517</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>653.8560407330535</v>
+        <v>451.6694460918196</v>
       </c>
       <c r="C6" t="n">
-        <v>653.8560407330535</v>
+        <v>451.6694460918196</v>
       </c>
       <c r="D6" t="n">
-        <v>504.9216310718023</v>
+        <v>451.6694460918196</v>
       </c>
       <c r="E6" t="n">
-        <v>345.6841760663468</v>
+        <v>451.6694460918196</v>
       </c>
       <c r="F6" t="n">
-        <v>199.1496180932317</v>
+        <v>305.1348881187046</v>
       </c>
       <c r="G6" t="n">
-        <v>60.41879267584724</v>
+        <v>166.4040627013201</v>
       </c>
       <c r="H6" t="n">
-        <v>60.41879267584724</v>
+        <v>53.0349271088994</v>
       </c>
       <c r="I6" t="n">
         <v>16.44142755506243</v>
@@ -4650,16 +4652,16 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L6" t="n">
-        <v>345.2616536067974</v>
+        <v>211.6833797714288</v>
       </c>
       <c r="M6" t="n">
-        <v>435.9652341458732</v>
+        <v>415.1460457653264</v>
       </c>
       <c r="N6" t="n">
-        <v>435.9652341458732</v>
+        <v>618.608711759224</v>
       </c>
       <c r="O6" t="n">
-        <v>639.4279001397708</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P6" t="n">
         <v>822.0713777531216</v>
@@ -4674,22 +4676,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T6" t="n">
-        <v>822.0713777531216</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="U6" t="n">
-        <v>822.0713777531216</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="V6" t="n">
-        <v>822.0713777531216</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="W6" t="n">
-        <v>822.0713777531216</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="X6" t="n">
-        <v>822.0713777531216</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="Y6" t="n">
-        <v>822.0713777531216</v>
+        <v>619.8847831118876</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="C7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="D7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="E7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="F7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="G7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="H7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="I7" t="n">
-        <v>133.2380658808762</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="J7" t="n">
         <v>38.93586374282289</v>
@@ -4741,34 +4743,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P7" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q7" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="S7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="T7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="U7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="V7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="W7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="X7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="Y7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>224.0352098159517</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C8" t="n">
-        <v>224.0352098159517</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="D8" t="n">
-        <v>224.0352098159517</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="E8" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="F8" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="G8" t="n">
-        <v>16.44142755506243</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="H8" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="I8" t="n">
         <v>16.44142755506243</v>
@@ -4805,19 +4807,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K8" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L8" t="n">
-        <v>176.2910403306274</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M8" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N8" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O8" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P8" t="n">
         <v>822.0713777531216</v>
@@ -4835,19 +4837,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U8" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V8" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W8" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X8" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y8" t="n">
-        <v>431.628992076841</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>430.88262829307</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="C9" t="n">
-        <v>256.4295990119429</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="D9" t="n">
-        <v>107.4951893506917</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="E9" t="n">
-        <v>107.4951893506917</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="F9" t="n">
-        <v>107.4951893506917</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="G9" t="n">
-        <v>107.4951893506917</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="H9" t="n">
-        <v>107.4951893506917</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="I9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J9" t="n">
         <v>16.44142755506243</v>
@@ -4887,19 +4889,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L9" t="n">
-        <v>163.1080096386462</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M9" t="n">
-        <v>366.5706756325438</v>
+        <v>219.90409354896</v>
       </c>
       <c r="N9" t="n">
-        <v>570.0333416264414</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="O9" t="n">
-        <v>570.0333416264414</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="P9" t="n">
-        <v>752.6768192397923</v>
+        <v>809.472903150106</v>
       </c>
       <c r="Q9" t="n">
         <v>822.0713777531216</v>
@@ -4911,22 +4913,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T9" t="n">
-        <v>822.0713777531216</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="U9" t="n">
-        <v>822.0713777531216</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="V9" t="n">
-        <v>822.0713777531216</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="W9" t="n">
-        <v>614.4775954922324</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="X9" t="n">
-        <v>614.4775954922324</v>
+        <v>204.697218590109</v>
       </c>
       <c r="Y9" t="n">
-        <v>430.88262829307</v>
+        <v>204.697218590109</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="C10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="D10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="E10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="F10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="G10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="H10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="I10" t="n">
         <v>133.2380658808762</v>
@@ -4978,34 +4980,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="R10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="S10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="T10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="U10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="V10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="W10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="X10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Y10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>822.0713777531216</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="C11" t="n">
-        <v>822.0713777531216</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="D11" t="n">
-        <v>822.0713777531216</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="E11" t="n">
-        <v>822.0713777531216</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="F11" t="n">
-        <v>614.4775954922324</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="G11" t="n">
-        <v>406.8838132313431</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="H11" t="n">
-        <v>199.2900309704538</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I11" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J11" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K11" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L11" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M11" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N11" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O11" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P11" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q11" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R11" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S11" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T11" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="U11" t="n">
-        <v>822.0713777531216</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="V11" t="n">
-        <v>822.0713777531216</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="W11" t="n">
-        <v>822.0713777531216</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="X11" t="n">
-        <v>822.0713777531216</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="Y11" t="n">
-        <v>822.0713777531216</v>
+        <v>236.1051990630351</v>
       </c>
     </row>
     <row r="12">
@@ -5094,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>16.44142755506243</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="C12" t="n">
-        <v>16.44142755506243</v>
+        <v>232.4307839502161</v>
       </c>
       <c r="D12" t="n">
-        <v>16.44142755506243</v>
+        <v>83.4963742889648</v>
       </c>
       <c r="E12" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="F12" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="G12" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H12" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I12" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J12" t="n">
         <v>16.44142755506243</v>
@@ -5127,10 +5129,10 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M12" t="n">
+        <v>345.2616536067974</v>
+      </c>
+      <c r="N12" t="n">
         <v>548.724319600695</v>
-      </c>
-      <c r="N12" t="n">
-        <v>639.4279001397708</v>
       </c>
       <c r="O12" t="n">
         <v>639.4279001397708</v>
@@ -5142,28 +5144,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R12" t="n">
-        <v>807.2329312674061</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S12" t="n">
-        <v>633.815586718075</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T12" t="n">
-        <v>431.628992076841</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U12" t="n">
-        <v>224.0352098159517</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V12" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W12" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X12" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y12" t="n">
-        <v>16.44142755506243</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="13">
@@ -5179,25 +5181,25 @@
         <v>150.9737180453332</v>
       </c>
       <c r="D13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="I13" t="n">
-        <v>16.44142755506243</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J13" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="K13" t="n">
         <v>16.44142755506243</v>
@@ -5252,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>224.0352098159517</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="C14" t="n">
-        <v>224.0352098159517</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="D14" t="n">
-        <v>224.0352098159517</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="E14" t="n">
-        <v>224.0352098159517</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="F14" t="n">
-        <v>224.0352098159517</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="G14" t="n">
-        <v>224.0352098159517</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="H14" t="n">
-        <v>224.0352098159517</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I14" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J14" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K14" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L14" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M14" t="n">
         <v>379.753706324525</v>
@@ -5297,31 +5299,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q14" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R14" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S14" t="n">
-        <v>453.0030327087026</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T14" t="n">
-        <v>245.4092504478133</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U14" t="n">
-        <v>245.4092504478133</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V14" t="n">
-        <v>245.4092504478133</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W14" t="n">
-        <v>245.4092504478133</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X14" t="n">
-        <v>224.0352098159517</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y14" t="n">
-        <v>224.0352098159517</v>
+        <v>443.6989813239244</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>506.1297083336119</v>
+        <v>204.697218590109</v>
       </c>
       <c r="C15" t="n">
-        <v>506.1297083336119</v>
+        <v>30.24418930898202</v>
       </c>
       <c r="D15" t="n">
-        <v>506.1297083336119</v>
+        <v>30.24418930898202</v>
       </c>
       <c r="E15" t="n">
-        <v>506.1297083336119</v>
+        <v>30.24418930898202</v>
       </c>
       <c r="F15" t="n">
-        <v>359.5951503604969</v>
+        <v>30.24418930898202</v>
       </c>
       <c r="G15" t="n">
-        <v>220.8643249431123</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H15" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I15" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J15" t="n">
         <v>16.44142755506243</v>
@@ -5367,13 +5369,13 @@
         <v>548.724319600695</v>
       </c>
       <c r="N15" t="n">
-        <v>570.0333416264414</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="O15" t="n">
-        <v>570.0333416264414</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P15" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q15" t="n">
         <v>822.0713777531216</v>
@@ -5385,22 +5387,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T15" t="n">
-        <v>822.0713777531216</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="U15" t="n">
-        <v>822.0713777531216</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="V15" t="n">
-        <v>822.0713777531216</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="W15" t="n">
-        <v>822.0713777531216</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="X15" t="n">
-        <v>822.0713777531216</v>
+        <v>204.697218590109</v>
       </c>
       <c r="Y15" t="n">
-        <v>614.4775954922324</v>
+        <v>204.697218590109</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="I16" t="n">
-        <v>16.44142755506243</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J16" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="K16" t="n">
         <v>16.44142755506243</v>
@@ -5461,25 +5463,25 @@
         <v>150.9737180453332</v>
       </c>
       <c r="S16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>366.1018663125844</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C17" t="n">
-        <v>366.1018663125844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D17" t="n">
-        <v>366.1018663125844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E17" t="n">
-        <v>366.1018663125844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F17" t="n">
-        <v>366.1018663125844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
-        <v>366.1018663125844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5534,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U17" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V17" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W17" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X17" t="n">
-        <v>366.1018663125844</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y17" t="n">
-        <v>366.1018663125844</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="18">
@@ -5568,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>689.4702815141908</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="C18" t="n">
-        <v>689.4702815141908</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="D18" t="n">
-        <v>554.837743301797</v>
+        <v>128.6703607680094</v>
       </c>
       <c r="E18" t="n">
-        <v>395.6002882963414</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>249.0657303232264</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5598,46 +5600,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N18" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V18" t="n">
-        <v>689.4702815141908</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W18" t="n">
-        <v>689.4702815141908</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X18" t="n">
-        <v>689.4702815141908</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y18" t="n">
-        <v>689.4702815141908</v>
+        <v>277.6047704292607</v>
       </c>
     </row>
     <row r="19">
@@ -5695,19 +5697,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
         <v>19.28114311021272</v>
@@ -5726,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>518.2486856454962</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C20" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D20" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5780,22 +5782,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U20" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V20" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W20" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X20" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y20" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="21">
@@ -5805,16 +5807,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>314.750110744579</v>
+        <v>90.84473158927784</v>
       </c>
       <c r="C21" t="n">
-        <v>314.750110744579</v>
+        <v>90.84473158927784</v>
       </c>
       <c r="D21" t="n">
-        <v>165.8157010833278</v>
+        <v>90.84473158927784</v>
       </c>
       <c r="E21" t="n">
-        <v>165.8157010833278</v>
+        <v>90.84473158927784</v>
       </c>
       <c r="F21" t="n">
         <v>19.28114311021272</v>
@@ -5832,22 +5834,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N21" t="n">
-        <v>781.4136778972854</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5856,25 +5858,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>752.0888136175558</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T21" t="n">
-        <v>549.9022189763218</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U21" t="n">
-        <v>549.9022189763218</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V21" t="n">
-        <v>314.750110744579</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="W21" t="n">
-        <v>314.750110744579</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="X21" t="n">
-        <v>314.750110744579</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="Y21" t="n">
-        <v>314.750110744579</v>
+        <v>259.0600686093459</v>
       </c>
     </row>
     <row r="22">
@@ -5941,19 +5943,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C23" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6014,25 +6016,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>527.5764290961142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>284.1276524520142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V23" t="n">
-        <v>40.6788758079141</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W23" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X23" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y23" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="24">
@@ -6042,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>588.0815197256143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
-        <v>413.6284904444873</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>291.8877337080889</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
         <v>19.28114311021272</v>
@@ -6078,10 +6080,10 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N24" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O24" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
         <v>964.0571555106362</v>
@@ -6096,22 +6098,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U24" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V24" t="n">
-        <v>964.0571555106362</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="W24" t="n">
-        <v>964.0571555106362</v>
+        <v>283.2696759935595</v>
       </c>
       <c r="X24" t="n">
-        <v>964.0571555106362</v>
+        <v>75.41817578802664</v>
       </c>
       <c r="Y24" t="n">
-        <v>756.2968567456824</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>946.3215033461793</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>506.1786963984129</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="C26" t="n">
-        <v>506.1786963984129</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="D26" t="n">
-        <v>506.1786963984129</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="E26" t="n">
-        <v>506.1786963984129</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="F26" t="n">
-        <v>262.7299197543128</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G26" t="n">
-        <v>262.7299197543128</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H26" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I26" t="n">
         <v>19.28114311021272</v>
@@ -6254,22 +6256,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="V26" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="W26" t="n">
-        <v>749.627473042513</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="X26" t="n">
-        <v>749.627473042513</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="Y26" t="n">
-        <v>506.1786963984129</v>
+        <v>962.2293816994886</v>
       </c>
     </row>
     <row r="27">
@@ -6279,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>116.7808214123601</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
-        <v>116.7808214123601</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>116.7808214123601</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>116.7808214123601</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>116.7808214123601</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
         <v>19.28114311021272</v>
@@ -6306,22 +6308,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>178.8501590306595</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M27" t="n">
-        <v>417.4543050195419</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N27" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O27" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6330,25 +6332,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>360.2295980564601</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V27" t="n">
-        <v>360.2295980564601</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W27" t="n">
-        <v>116.7808214123601</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X27" t="n">
-        <v>116.7808214123601</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y27" t="n">
-        <v>116.7808214123601</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6443,7 +6445,7 @@
         <v>506.1786963984129</v>
       </c>
       <c r="D29" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E29" t="n">
         <v>262.7299197543128</v>
@@ -6482,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V29" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W29" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X29" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y29" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="30">
@@ -6516,10 +6518,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>19.28114311021272</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="C30" t="n">
-        <v>19.28114311021272</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="D30" t="n">
         <v>19.28114311021272</v>
@@ -6543,22 +6545,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2442489785619</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M30" t="n">
-        <v>487.8483949674443</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N30" t="n">
-        <v>656.0584510084244</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6570,22 +6572,22 @@
         <v>790.6398109613051</v>
       </c>
       <c r="T30" t="n">
-        <v>726.1056462496665</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U30" t="n">
-        <v>497.8820279860555</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V30" t="n">
-        <v>262.7299197543128</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="W30" t="n">
-        <v>19.28114311021272</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="X30" t="n">
-        <v>19.28114311021272</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="Y30" t="n">
-        <v>19.28114311021272</v>
+        <v>125.0774898247174</v>
       </c>
     </row>
     <row r="31">
@@ -6595,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C31" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D31" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E31" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F31" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G31" t="n">
         <v>829.5248650203655</v>
@@ -6655,16 +6657,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V31" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W31" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X31" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y31" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>233.7108255783361</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C32" t="n">
-        <v>233.7108255783361</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D32" t="n">
-        <v>233.7108255783361</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E32" t="n">
-        <v>233.7108255783361</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F32" t="n">
-        <v>233.7108255783361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G32" t="n">
-        <v>233.7108255783361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H32" t="n">
-        <v>233.7108255783361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I32" t="n">
-        <v>21.10891692136039</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6731,19 +6733,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V32" t="n">
-        <v>477.1596022224361</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W32" t="n">
-        <v>477.1596022224361</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="X32" t="n">
-        <v>477.1596022224361</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="Y32" t="n">
-        <v>477.1596022224361</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="33">
@@ -6753,16 +6755,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>648.4405950311615</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="C33" t="n">
-        <v>473.9875657500345</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="D33" t="n">
-        <v>325.0531560887832</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="E33" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
         <v>19.28114311021272</v>
@@ -6783,46 +6785,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>144.6387031680501</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M33" t="n">
-        <v>304.2053859195205</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N33" t="n">
-        <v>542.809531908403</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>850.6271896723954</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>648.4405950311615</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U33" t="n">
-        <v>648.4405950311615</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V33" t="n">
-        <v>648.4405950311615</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W33" t="n">
-        <v>648.4405950311615</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X33" t="n">
-        <v>648.4405950311615</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="Y33" t="n">
-        <v>648.4405950311615</v>
+        <v>55.04605772994853</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C34" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D34" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E34" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F34" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G34" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="H34" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W34" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X34" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y34" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>477.1596022224361</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C35" t="n">
+        <v>720.6083788665362</v>
+      </c>
+      <c r="D35" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="E35" t="n">
         <v>262.7299197543128</v>
       </c>
-      <c r="D35" t="n">
+      <c r="F35" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="E35" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F35" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
         <v>19.28114311021272</v>
@@ -6968,13 +6970,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W35" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X35" t="n">
         <v>720.6083788665362</v>
@@ -6990,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>55.04605772994853</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="C36" t="n">
-        <v>55.04605772994853</v>
+        <v>554.4520179977666</v>
       </c>
       <c r="D36" t="n">
-        <v>55.04605772994853</v>
+        <v>554.4520179977666</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>395.2145629923111</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7020,19 +7022,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>248.2447175439888</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>486.8488635328713</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N36" t="n">
-        <v>725.4530095217538</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O36" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7044,22 +7046,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>533.6469426057913</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V36" t="n">
-        <v>298.4948343740486</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W36" t="n">
-        <v>55.04605772994853</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="X36" t="n">
-        <v>55.04605772994853</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="Y36" t="n">
-        <v>55.04605772994853</v>
+        <v>728.9050472788936</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="38">
@@ -7193,10 +7195,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S38" t="n">
         <v>749.627473042513</v>
@@ -7227,49 +7229,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>20.03527576299844</v>
+        <v>512.8480801015824</v>
       </c>
       <c r="C39" t="n">
-        <v>20.03527576299844</v>
+        <v>338.3950508204554</v>
       </c>
       <c r="D39" t="n">
-        <v>20.03527576299844</v>
+        <v>338.3950508204554</v>
       </c>
       <c r="E39" t="n">
-        <v>20.03527576299844</v>
+        <v>179.1575958149999</v>
       </c>
       <c r="F39" t="n">
-        <v>20.03527576299844</v>
+        <v>32.62303784188484</v>
       </c>
       <c r="G39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N39" t="n">
-        <v>613.2059550252818</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7281,22 +7283,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>914.2479596093278</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>914.2479596093278</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V39" t="n">
-        <v>679.0958513775852</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W39" t="n">
-        <v>435.6470747334852</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X39" t="n">
-        <v>227.7955745279523</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y39" t="n">
-        <v>20.03527576299844</v>
+        <v>512.8480801015824</v>
       </c>
     </row>
     <row r="40">
@@ -7385,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>614.4775954922324</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="C41" t="n">
-        <v>614.4775954922324</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="D41" t="n">
-        <v>614.4775954922324</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="E41" t="n">
-        <v>614.4775954922324</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="F41" t="n">
-        <v>614.4775954922324</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="G41" t="n">
-        <v>406.8838132313431</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="H41" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I41" t="n">
         <v>16.44142755506243</v>
@@ -7418,7 +7420,7 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M41" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N41" t="n">
         <v>583.2163723184226</v>
@@ -7442,19 +7444,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U41" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V41" t="n">
-        <v>614.4775954922324</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W41" t="n">
-        <v>614.4775954922324</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="X41" t="n">
-        <v>614.4775954922324</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="Y41" t="n">
-        <v>614.4775954922324</v>
+        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="42">
@@ -7491,22 +7493,22 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K42" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L42" t="n">
-        <v>219.90409354896</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="M42" t="n">
-        <v>423.3667595428576</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N42" t="n">
-        <v>626.8294255367553</v>
+        <v>548.724319600695</v>
       </c>
       <c r="O42" t="n">
-        <v>752.6768192397923</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="P42" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q42" t="n">
         <v>822.0713777531216</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L43" t="n">
-        <v>714.8532122705639</v>
+        <v>43.75555256277541</v>
       </c>
       <c r="M43" t="n">
-        <v>754.041250462786</v>
+        <v>82.94359075499759</v>
       </c>
       <c r="N43" t="n">
-        <v>797.7321011182223</v>
+        <v>126.6344414104339</v>
       </c>
       <c r="O43" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="P43" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q43" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="44">
@@ -7628,10 +7630,10 @@
         <v>236.1051990630351</v>
       </c>
       <c r="D44" t="n">
-        <v>236.1051990630351</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="E44" t="n">
-        <v>236.1051990630351</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="F44" t="n">
         <v>28.51141680214578</v>
@@ -7649,10 +7651,10 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K44" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L44" t="n">
-        <v>299.5322850506434</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M44" t="n">
         <v>379.753706324525</v>
@@ -7667,31 +7669,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q44" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R44" t="n">
-        <v>670.6884303378189</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S44" t="n">
-        <v>670.6884303378189</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="T44" t="n">
-        <v>670.6884303378189</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="U44" t="n">
-        <v>670.6884303378189</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="V44" t="n">
-        <v>670.6884303378189</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="W44" t="n">
-        <v>651.2927635848137</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="X44" t="n">
-        <v>651.2927635848137</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="Y44" t="n">
-        <v>443.6989813239244</v>
+        <v>236.1051990630351</v>
       </c>
     </row>
     <row r="45">
@@ -7701,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>190.8944568361894</v>
+        <v>191.6485894889752</v>
       </c>
       <c r="C45" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="D45" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="E45" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="F45" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="G45" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H45" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I45" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J45" t="n">
         <v>16.44142755506243</v>
@@ -7731,13 +7733,13 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L45" t="n">
-        <v>211.6833797714288</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M45" t="n">
-        <v>415.1460457653264</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N45" t="n">
-        <v>618.608711759224</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="O45" t="n">
         <v>822.0713777531216</v>
@@ -7749,28 +7751,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R45" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S45" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T45" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="U45" t="n">
-        <v>614.4775954922324</v>
+        <v>513.308066045118</v>
       </c>
       <c r="V45" t="n">
-        <v>406.8838132313431</v>
+        <v>513.308066045118</v>
       </c>
       <c r="W45" t="n">
-        <v>406.8838132313431</v>
+        <v>305.7142837842288</v>
       </c>
       <c r="X45" t="n">
-        <v>406.8838132313431</v>
+        <v>305.7142837842288</v>
       </c>
       <c r="Y45" t="n">
-        <v>199.2900309704538</v>
+        <v>305.7142837842288</v>
       </c>
     </row>
     <row r="46">
@@ -7837,10 +7839,10 @@
         <v>150.9737180453332</v>
       </c>
       <c r="U46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W46" t="n">
         <v>16.44142755506243</v>
@@ -7982,13 +7984,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>293.1751087726566</v>
       </c>
       <c r="M2" t="n">
         <v>435.8640776655532</v>
       </c>
       <c r="N2" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O2" t="n">
         <v>380.8001812627454</v>
@@ -8061,19 +8063,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>344.0722242181546</v>
+        <v>265.6729592778915</v>
       </c>
       <c r="M3" t="n">
-        <v>290.282096632709</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O3" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8216,13 +8218,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>401.9436843039723</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N5" t="n">
         <v>434.9309080348713</v>
@@ -8231,7 +8233,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>231.2329957552695</v>
+        <v>301.368163919873</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8298,19 +8300,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>344.0722242181546</v>
+        <v>209.1446748894994</v>
       </c>
       <c r="M6" t="n">
-        <v>233.7538122443171</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O6" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
         <v>139.9817740860215</v>
@@ -8453,10 +8455,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>397.2306702988408</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
         <v>435.8640776655532</v>
@@ -8465,10 +8467,10 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8535,22 +8537,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>286.7024424905649</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M9" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>152.7075060082595</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,22 +8692,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>415.4335334139435</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N11" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8775,13 +8777,13 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M12" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>222.9614904056321</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>234.2160227667432</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -8927,13 +8929,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>311.3779718877592</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N14" t="n">
         <v>434.9309080348713</v>
@@ -9015,16 +9017,16 @@
         <v>347.6518783602987</v>
       </c>
       <c r="N15" t="n">
-        <v>152.8659767558044</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>213.1865395540696</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9246,13 +9248,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>303.312501347746</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
@@ -9261,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9489,16 +9491,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>301.2485028631349</v>
+        <v>301.2508595994748</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9726,13 +9728,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>371.3463732493024</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -9954,13 +9956,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>299.7352039419416</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
@@ -9969,10 +9971,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,16 +10193,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>243.2069195535496</v>
       </c>
       <c r="M30" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>301.2508595994748</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10209,7 +10211,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10431,22 +10433,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M33" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10668,22 +10670,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>369.8307175917693</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10911,16 +10913,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O39" t="n">
-        <v>312.5030352242461</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11066,10 +11068,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N41" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11139,10 +11141,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>347.6518783602987</v>
@@ -11151,13 +11153,13 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O42" t="n">
-        <v>269.7148239424616</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>204.5647025239554</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,13 +11299,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>397.2306702988408</v>
       </c>
       <c r="M44" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N44" t="n">
         <v>434.9309080348713</v>
@@ -11379,7 +11381,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>335.768472927719</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M45" t="n">
         <v>347.6518783602987</v>
@@ -11388,7 +11390,7 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O45" t="n">
-        <v>348.1140888827248</v>
+        <v>339.8103375922893</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -22544,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22562,13 +22564,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
-        <v>170.4039740891423</v>
+        <v>308.3238026756795</v>
       </c>
       <c r="I2" t="n">
-        <v>4.958045132125505</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22592,13 +22594,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -22607,13 +22609,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y2" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22623,10 +22625,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>158.2215652569457</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -22677,19 +22679,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>19.14461131358425</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W3" t="n">
         <v>46.1771387226392</v>
       </c>
       <c r="X3" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0.1648513390239543</v>
@@ -22781,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>201.7137242822431</v>
       </c>
       <c r="C5" t="n">
         <v>159.7550473327271</v>
@@ -22844,7 +22846,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>168.2208513361757</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>164.2132562401886</v>
@@ -22866,10 +22868,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -22878,10 +22880,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>45.85904138183812</v>
+        <v>53.16906829311649</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -22914,7 +22916,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
@@ -22960,10 +22962,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22981,13 +22983,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23018,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23027,19 +23029,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>29.45577218916847</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -23075,7 +23077,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>70.32553552659914</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23087,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23097,13 +23099,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>69.55658337658629</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -23121,7 +23123,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23151,7 +23153,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -23163,10 +23165,10 @@
         <v>46.1771387226392</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y9" t="n">
-        <v>23.92367825013361</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23197,7 +23199,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>137.8921792844459</v>
+        <v>140.6136200195524</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23218,7 +23220,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -23270,16 +23272,16 @@
         <v>201.358201303431</v>
       </c>
       <c r="G11" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>29.45577218916847</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23300,19 +23302,19 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T11" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>242.1346420369061</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23324,7 +23326,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="12">
@@ -23337,13 +23339,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>92.00727451509546</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
@@ -23358,7 +23360,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23382,28 +23384,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>85.46777213178478</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="13">
@@ -23419,7 +23421,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>15.42850543284436</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23434,13 +23436,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23495,10 +23497,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -23513,10 +23515,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>4.958045132125505</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23537,16 +23539,16 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>17.57800512585095</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
         <v>251.3456529078365</v>
@@ -23555,13 +23557,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X14" t="n">
-        <v>348.5708004529261</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>217.1671106294287</v>
       </c>
     </row>
     <row r="15">
@@ -23571,10 +23573,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>59.26877536283311</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -23583,19 +23585,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>123.6787830268302</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23625,7 +23627,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>225.9413820809748</v>
@@ -23634,13 +23636,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23671,13 +23673,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23701,7 +23703,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
-        <v>90.82963045160426</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T16" t="n">
         <v>227.9455894282815</v>
@@ -23729,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -23747,13 +23749,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>218.5474650704376</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23774,16 +23776,16 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
         <v>251.3456529078365</v>
@@ -23795,10 +23797,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>157.445715035027</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="18">
@@ -23814,25 +23816,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>14.15885273436891</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>49.34975497418223</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,10 +23858,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
         <v>200.1647286948216</v>
@@ -23868,13 +23870,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23935,7 +23937,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23950,7 +23952,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23966,19 +23968,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>182.3977453746509</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D20" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>415.302737515135</v>
@@ -23990,7 +23992,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24020,13 +24022,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>10.33136403017744</v>
+        <v>21.14182795086677</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24045,19 +24047,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>74.22125979910942</v>
       </c>
       <c r="G21" t="n">
         <v>137.3435171632106</v>
@@ -24096,16 +24098,16 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>61.99234678233142</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24181,7 +24183,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24203,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24218,16 +24220,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>10.13979328157632</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24254,22 +24256,22 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>328.0572133466886</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24282,16 +24284,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>26.92171639560435</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -24300,7 +24302,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
         <v>89.39663285141508</v>
@@ -24336,22 +24338,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>150.1070334262686</v>
       </c>
     </row>
     <row r="25">
@@ -24382,13 +24384,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I25" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24443,7 +24445,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24452,16 +24454,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
         <v>98.46051323810809</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -24494,7 +24496,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>221.2863534910952</v>
       </c>
       <c r="U26" t="n">
         <v>251.3456529078365</v>
@@ -24503,13 +24505,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>136.955583073971</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24534,7 +24536,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>40.81883564408477</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
@@ -24570,25 +24572,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="28">
@@ -24646,7 +24648,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24661,7 +24663,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24677,16 +24679,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -24722,13 +24724,13 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>156.5945010984978</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
         <v>223.0958495641314</v>
@@ -24762,7 +24764,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>42.70668231727912</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
@@ -24810,7 +24812,7 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>136.2759056302994</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -24819,7 +24821,7 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -24850,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309076</v>
       </c>
       <c r="H31" t="n">
         <v>162.2271725074396</v>
@@ -24895,7 +24897,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24926,7 +24928,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
@@ -24935,10 +24937,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>10.13979328157633</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24971,16 +24973,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>148.9048724285834</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24996,16 +24998,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>122.2378149818625</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>137.3435171632106</v>
@@ -25041,22 +25043,22 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>159.5453390766226</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -25093,7 +25095,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I34" t="n">
-        <v>22.26350734189029</v>
+        <v>24.98494807699674</v>
       </c>
       <c r="J34" t="n">
         <v>93.35918011667277</v>
@@ -25114,7 +25116,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>86.16204325169439</v>
@@ -25151,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>152.9875061275654</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>142.3976559772408</v>
       </c>
       <c r="E35" t="n">
         <v>140.9160811946027</v>
@@ -25166,7 +25168,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25208,7 +25210,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25217,7 +25219,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25233,28 +25235,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>122.2378149818625</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>112.6173122874866</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25284,16 +25286,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -25321,13 +25323,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>12.23408043756325</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>167.9909793584588</v>
       </c>
       <c r="H37" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I37" t="n">
         <v>155.4504749272583</v>
@@ -25433,13 +25435,13 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>146.6038018839531</v>
+        <v>6.725383157348119</v>
       </c>
       <c r="T38" t="n">
         <v>223.0958495641314</v>
@@ -25470,19 +25472,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>124.1350413788552</v>
       </c>
       <c r="H39" t="n">
         <v>112.2354442364965</v>
@@ -25491,7 +25493,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25521,19 +25523,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>150.8536247525263</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25640,13 +25642,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>133.9569576774867</v>
+        <v>158.4546847345297</v>
       </c>
       <c r="I41" t="n">
-        <v>29.45577218916847</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -25682,13 +25684,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V41" t="n">
         <v>122.2344140318545</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25798,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>34.80401177309076</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H43" t="n">
         <v>162.2271725074396</v>
@@ -25831,7 +25833,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180149</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
@@ -25862,19 +25864,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>415.302737515135</v>
@@ -25907,7 +25909,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -25916,22 +25918,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>330.0392586319379</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>180.7200942177732</v>
+        <v>377.0269277851232</v>
       </c>
     </row>
     <row r="45">
@@ -25941,7 +25943,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>158.2215652569456</v>
+        <v>53.60814629756629</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -25965,7 +25967,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25989,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
@@ -26001,16 +26003,16 @@
         <v>20.42353764269441</v>
       </c>
       <c r="V45" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26077,13 +26079,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>386557.236662629</v>
+        <v>386557.2366626289</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>386557.2366626289</v>
+        <v>386557.236662629</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>407153.1926468365</v>
+        <v>407153.1926468364</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>407153.1926468363</v>
+        <v>407153.1926468364</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>407153.1926468364</v>
+        <v>407153.1926468365</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>407153.1926468365</v>
+        <v>407153.1926468364</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>407153.1926468363</v>
+        <v>407153.1926468364</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>407153.1926468364</v>
+        <v>407153.1926468365</v>
       </c>
     </row>
     <row r="15">
@@ -26314,22 +26316,22 @@
         <v>173533.4060184248</v>
       </c>
       <c r="C2" t="n">
+        <v>173533.4060184248</v>
+      </c>
+      <c r="D2" t="n">
+        <v>173533.4060184248</v>
+      </c>
+      <c r="E2" t="n">
         <v>173533.4060184247</v>
       </c>
-      <c r="D2" t="n">
-        <v>173533.4060184247</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>173533.4060184248</v>
-      </c>
-      <c r="F2" t="n">
-        <v>173533.4060184247</v>
       </c>
       <c r="G2" t="n">
         <v>182776.7397844656</v>
       </c>
       <c r="H2" t="n">
-        <v>182776.7397844656</v>
+        <v>182776.7397844657</v>
       </c>
       <c r="I2" t="n">
         <v>182776.7397844656</v>
@@ -26338,7 +26340,7 @@
         <v>182776.7397844656</v>
       </c>
       <c r="K2" t="n">
-        <v>182776.7397844656</v>
+        <v>182776.7397844657</v>
       </c>
       <c r="L2" t="n">
         <v>182776.7397844656</v>
@@ -26424,16 +26426,16 @@
         <v>8092.707817725995</v>
       </c>
       <c r="E4" t="n">
-        <v>8092.707817725994</v>
+        <v>8092.707817725995</v>
       </c>
       <c r="F4" t="n">
-        <v>8092.707817725994</v>
+        <v>8092.707817725995</v>
       </c>
       <c r="G4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="H4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="I4" t="n">
         <v>8547.111069342402</v>
@@ -26445,7 +26447,7 @@
         <v>8547.111069342402</v>
       </c>
       <c r="L4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="M4" t="n">
         <v>8547.111069342402</v>
@@ -26454,7 +26456,7 @@
         <v>8547.111069342402</v>
       </c>
       <c r="O4" t="n">
-        <v>8092.707817725995</v>
+        <v>8092.707817725994</v>
       </c>
       <c r="P4" t="n">
         <v>8092.707817725995</v>
@@ -26519,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>50443.8566771615</v>
+        <v>50443.85667716149</v>
       </c>
       <c r="C6" t="n">
         <v>119317.6132588513</v>
@@ -26534,25 +26536,25 @@
         <v>152945.2132588513</v>
       </c>
       <c r="G6" t="n">
-        <v>149846.9169771944</v>
+        <v>149846.9169771945</v>
       </c>
       <c r="H6" t="n">
         <v>159575.9599513616</v>
       </c>
       <c r="I6" t="n">
-        <v>159575.9599513615</v>
+        <v>159575.9599513616</v>
       </c>
       <c r="J6" t="n">
         <v>105803.4490611521</v>
       </c>
       <c r="K6" t="n">
+        <v>159575.9599513616</v>
+      </c>
+      <c r="L6" t="n">
+        <v>159575.9599513616</v>
+      </c>
+      <c r="M6" t="n">
         <v>159575.9599513615</v>
-      </c>
-      <c r="L6" t="n">
-        <v>159575.9599513615</v>
-      </c>
-      <c r="M6" t="n">
-        <v>159575.9599513616</v>
       </c>
       <c r="N6" t="n">
         <v>159575.9599513615</v>
@@ -34702,13 +34704,13 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L2" t="n">
-        <v>181.8947995804632</v>
+        <v>57.40869380266933</v>
       </c>
       <c r="M2" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N2" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O2" t="n">
         <v>150.7019698410586</v>
@@ -34781,19 +34783,19 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
+        <v>127.1185794980173</v>
+      </c>
+      <c r="M3" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="M3" t="n">
-        <v>148.1480627106907</v>
-      </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O3" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -34936,13 +34938,13 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>171.5974510766996</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N5" t="n">
         <v>205.5178444382804</v>
@@ -34951,7 +34953,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>70.1351681646035</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35018,19 +35020,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
+        <v>70.5902951096252</v>
+      </c>
+      <c r="M6" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="M6" t="n">
-        <v>91.61977832229879</v>
-      </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O6" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35173,10 +35175,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
-        <v>161.4642553288535</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
         <v>205.5178444382804</v>
@@ -35185,10 +35187,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410586</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P8" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35255,22 +35257,22 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>148.1480627106907</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>12.72573192223796</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L11" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>185.0873001866707</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N11" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O11" t="n">
-        <v>150.7019698410586</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P11" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35495,13 +35497,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="N12" t="n">
+      <c r="O12" t="n">
         <v>91.61977832229879</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
@@ -35647,13 +35649,13 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>81.03173866048648</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="N14" t="n">
         <v>205.5178444382804</v>
@@ -35735,16 +35737,16 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N15" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35966,13 +35968,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>161.1784674257276</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
@@ -35981,7 +35983,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,7 +36202,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
@@ -36209,16 +36211,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>169.9067907798016</v>
+        <v>169.9091475161415</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36446,13 +36448,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>240.0046611659691</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36674,13 +36676,13 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>161.1808241620674</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
@@ -36689,10 +36691,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,16 +36913,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="M30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>169.9091475161415</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -36929,7 +36931,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37151,22 +37153,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M33" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37312,7 +37314,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M35" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N35" t="n">
         <v>207.9338608153932</v>
@@ -37388,22 +37390,22 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>231.276337811895</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37549,7 +37551,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M38" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N38" t="n">
         <v>207.9338608153932</v>
@@ -37622,7 +37624,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
@@ -37631,16 +37633,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O39" t="n">
-        <v>169.9067907798016</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37786,10 +37788,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
+        <v>81.03173866048648</v>
+      </c>
+      <c r="N41" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N41" t="n">
-        <v>81.03173866048648</v>
       </c>
       <c r="O41" t="n">
         <v>150.7019698410586</v>
@@ -37859,10 +37861,10 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>205.5178444382804</v>
@@ -37871,13 +37873,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O42" t="n">
-        <v>127.1185794980172</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,13 +38019,13 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>181.8947995804632</v>
+        <v>161.4642553288535</v>
       </c>
       <c r="M44" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N44" t="n">
         <v>205.5178444382804</v>
@@ -38099,7 +38101,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>197.2140931478448</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M45" t="n">
         <v>205.5178444382804</v>
@@ -38108,7 +38110,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O45" t="n">
-        <v>205.5178444382804</v>
+        <v>197.2140931478448</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_1_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_1_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1113270.217191799</v>
+        <v>1014891.372995692</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18621122.00443468</v>
+        <v>14829673.35797656</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4588342.250614033</v>
+        <v>6339139.01019743</v>
       </c>
     </row>
     <row r="11">
@@ -670,19 +670,19 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
-        <v>31.1509994400877</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -703,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>192.5500720523643</v>
       </c>
     </row>
     <row r="3">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>106.6351359723257</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -755,13 +755,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -858,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>22.03399177268427</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>110.9174757594852</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,31 +895,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G5" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -940,16 +940,16 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>192.5500720523643</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,31 +974,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>46.34513810893242</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>36.22756455829859</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1098,10 +1098,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>22.03399177268427</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1144,49 +1144,49 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G8" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="G8" t="n">
+      <c r="J8" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R8" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S8" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="H8" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="I8" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>192.5500720523643</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>96.97660027328105</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1220,10 +1220,10 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1232,10 +1232,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1271,16 +1271,16 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>88.43019338793384</v>
       </c>
       <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="X9" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>14.83685490770588</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>93.35918011667277</v>
@@ -1332,13 +1332,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1381,13 +1381,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>9.211010870930394</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1451,13 +1451,13 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>65.63780594030548</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1472,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W12" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="X12" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="X12" t="n">
-        <v>0</v>
-      </c>
       <c r="Y12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1548,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1612,16 +1612,16 @@
         <v>205.5178444382804</v>
       </c>
       <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1630,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1669,13 +1669,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>169.0708280266249</v>
       </c>
     </row>
     <row r="15">
@@ -1688,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1700,7 +1700,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>13.66473413638039</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1709,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1739,10 +1739,10 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -1751,10 +1751,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="X15" t="n">
+        <v>180.2735260549796</v>
+      </c>
+      <c r="Y15" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1785,13 +1785,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C17" t="n">
+      <c r="G17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1891,10 +1891,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1909,10 +1909,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1928,10 +1928,10 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>108.2953254812187</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1979,19 +1979,19 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>241.0142888776591</v>
+        <v>64.38401073897947</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2064,13 +2064,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2083,70 +2083,70 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>223.0958495641314</v>
-      </c>
-      <c r="U20" t="n">
-        <v>230.2038249569697</v>
       </c>
       <c r="V20" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2159,31 +2159,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>62.07749986335751</v>
       </c>
       <c r="F21" t="n">
-        <v>70.84795259427446</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2207,22 +2207,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2283,10 +2283,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2317,73 +2317,73 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
+      <c r="I23" t="n">
+        <v>210.4758895704059</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1.809496073036132</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>200.3360962888296</v>
-      </c>
-      <c r="J23" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2420,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2444,28 +2444,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>49.51048738884964</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>55.57566235103577</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2523,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2572,10 +2572,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,13 +2608,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -2699,10 +2699,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>63.88882306452232</v>
       </c>
       <c r="Y27" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2760,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2809,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2854,7 +2854,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="X29" t="n">
         <v>241.0142888776591</v>
@@ -2876,7 +2876,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>104.7383832473596</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -2894,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2921,22 +2921,22 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>54.82907102477793</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2964,49 +2964,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3040,10 +3040,10 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3091,13 +3091,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>200.3360962888297</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>200.3360962888297</v>
       </c>
     </row>
     <row r="33">
@@ -3110,13 +3110,13 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>35.40726547353844</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3131,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3155,28 +3155,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>43.2448826242281</v>
       </c>
     </row>
     <row r="34">
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3228,7 +3228,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3268,70 +3268,70 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D35" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="W35" t="n">
         <v>212.2853856434421</v>
       </c>
-      <c r="E35" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
       <c r="X35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3347,19 +3347,19 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>32.45190010589728</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>53.36172263168805</v>
       </c>
       <c r="H36" t="n">
         <v>112.2354442364965</v>
@@ -3407,10 +3407,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3441,52 +3441,52 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3505,73 +3505,73 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
       <c r="G38" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H38" t="n">
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>202.2946864288972</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3590,19 +3590,19 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>13.20847578435539</v>
+        <v>61.60271076108487</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3635,7 +3635,7 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -3644,10 +3644,10 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -3714,19 +3714,19 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0</v>
+      </c>
+      <c r="X40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
-      </c>
-      <c r="X40" t="n">
-        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3748,61 +3748,61 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
         <v>181.0201173812374</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
       <c r="U41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3818,25 +3818,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>47.29627918133474</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>116.6574371276204</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3881,10 +3881,10 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
+        <v>0</v>
+      </c>
+      <c r="X42" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="X42" t="n">
-        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>205.5178444382804</v>
@@ -3945,22 +3945,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3982,11 +3982,11 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
@@ -4000,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4021,22 +4021,22 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>9.211010870930394</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4055,10 +4055,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>112.925037352301</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4106,10 +4106,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>85.4688076457952</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
         <v>205.5178444382804</v>
@@ -4191,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>47.90708355515102</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="C2" t="n">
-        <v>47.90708355515102</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="D2" t="n">
-        <v>47.90708355515102</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="E2" t="n">
-        <v>47.90708355515102</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="F2" t="n">
-        <v>47.90708355515102</v>
+        <v>43.96872742349432</v>
       </c>
       <c r="G2" t="n">
-        <v>47.90708355515102</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="H2" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I2" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J2" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K2" t="n">
-        <v>119.4564334659848</v>
+        <v>85.87524403801982</v>
       </c>
       <c r="L2" t="n">
-        <v>176.2910403306274</v>
+        <v>265.9510956226784</v>
       </c>
       <c r="M2" t="n">
-        <v>379.753706324525</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N2" t="n">
-        <v>583.2163723184226</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O2" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P2" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q2" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R2" t="n">
-        <v>670.6884303378189</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S2" t="n">
-        <v>670.6884303378189</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="T2" t="n">
-        <v>463.0946480769296</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="U2" t="n">
-        <v>463.0946480769296</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="V2" t="n">
-        <v>463.0946480769296</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="W2" t="n">
-        <v>255.5008658160403</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="X2" t="n">
-        <v>47.90708355515102</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="Y2" t="n">
-        <v>47.90708355515102</v>
+        <v>50.91422817269779</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.44142755506243</v>
+        <v>613.1895897481025</v>
       </c>
       <c r="C3" t="n">
-        <v>16.44142755506243</v>
+        <v>438.7365604669756</v>
       </c>
       <c r="D3" t="n">
-        <v>16.44142755506243</v>
+        <v>289.8021508057243</v>
       </c>
       <c r="E3" t="n">
-        <v>16.44142755506243</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="F3" t="n">
-        <v>16.44142755506243</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="G3" t="n">
-        <v>16.44142755506243</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="H3" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I3" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J3" t="n">
         <v>16.44142755506243</v>
@@ -4415,10 +4415,10 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L3" t="n">
-        <v>142.2888212580996</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M3" t="n">
-        <v>345.7514872519972</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N3" t="n">
         <v>549.2141532458947</v>
@@ -4433,28 +4433,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R3" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S3" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T3" t="n">
-        <v>639.2227743377304</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="U3" t="n">
-        <v>639.2227743377304</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="V3" t="n">
-        <v>431.628992076841</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="W3" t="n">
-        <v>224.0352098159517</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="X3" t="n">
-        <v>224.0352098159517</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="Y3" t="n">
-        <v>16.44142755506243</v>
+        <v>720.9018483060073</v>
       </c>
     </row>
     <row r="4">
@@ -4506,28 +4506,28 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q4" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R4" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S4" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T4" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U4" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V4" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W4" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X4" t="n">
         <v>38.93586374282289</v>
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>224.0352098159517</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="C5" t="n">
-        <v>16.44142755506243</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="D5" t="n">
-        <v>16.44142755506243</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="E5" t="n">
-        <v>16.44142755506243</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="F5" t="n">
-        <v>16.44142755506243</v>
+        <v>251.5625096843836</v>
       </c>
       <c r="G5" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="H5" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="I5" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J5" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K5" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L5" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M5" t="n">
-        <v>399.9799451336186</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N5" t="n">
-        <v>603.4426111275161</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O5" t="n">
-        <v>752.6375612701642</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P5" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q5" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R5" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S5" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T5" t="n">
-        <v>822.0713777531216</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="U5" t="n">
-        <v>822.0713777531216</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="V5" t="n">
-        <v>822.0713777531216</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="W5" t="n">
-        <v>822.0713777531216</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="X5" t="n">
-        <v>614.4775954922324</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="Y5" t="n">
-        <v>406.8838132313431</v>
+        <v>258.5080104335871</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>451.6694460918196</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="C6" t="n">
-        <v>451.6694460918196</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="D6" t="n">
-        <v>451.6694460918196</v>
+        <v>369.7808440035221</v>
       </c>
       <c r="E6" t="n">
-        <v>451.6694460918196</v>
+        <v>210.5433889980666</v>
       </c>
       <c r="F6" t="n">
-        <v>305.1348881187046</v>
+        <v>64.0088310249516</v>
       </c>
       <c r="G6" t="n">
-        <v>166.4040627013201</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H6" t="n">
-        <v>53.0349271088994</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I6" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J6" t="n">
         <v>16.44142755506243</v>
@@ -4652,16 +4652,16 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L6" t="n">
-        <v>211.6833797714288</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="M6" t="n">
-        <v>415.1460457653264</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N6" t="n">
-        <v>618.608711759224</v>
+        <v>548.724319600695</v>
       </c>
       <c r="O6" t="n">
-        <v>822.0713777531216</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="P6" t="n">
         <v>822.0713777531216</v>
@@ -4670,28 +4670,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R6" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S6" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T6" t="n">
-        <v>619.8847831118876</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="U6" t="n">
-        <v>619.8847831118876</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="V6" t="n">
-        <v>619.8847831118876</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="W6" t="n">
-        <v>619.8847831118876</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="X6" t="n">
-        <v>619.8847831118876</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="Y6" t="n">
-        <v>619.8847831118876</v>
+        <v>518.7152536647734</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K7" t="n">
         <v>16.44142755506243</v>
@@ -4746,31 +4746,31 @@
         <v>148.224788009872</v>
       </c>
       <c r="Q7" t="n">
-        <v>61.19242108896862</v>
+        <v>148.224788009872</v>
       </c>
       <c r="R7" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="S7" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="T7" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="U7" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="V7" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="W7" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="X7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>822.0713777531216</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="C8" t="n">
-        <v>822.0713777531216</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="D8" t="n">
-        <v>822.0713777531216</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="E8" t="n">
-        <v>822.0713777531216</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="F8" t="n">
-        <v>614.4775954922324</v>
+        <v>251.5625096843836</v>
       </c>
       <c r="G8" t="n">
-        <v>406.8838132313431</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="H8" t="n">
-        <v>199.2900309704538</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="I8" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J8" t="n">
         <v>16.44142755506243</v>
@@ -4813,43 +4813,43 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M8" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N8" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O8" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P8" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q8" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R8" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S8" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T8" t="n">
-        <v>822.0713777531216</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="U8" t="n">
-        <v>822.0713777531216</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="V8" t="n">
-        <v>822.0713777531216</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="W8" t="n">
-        <v>822.0713777531216</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="X8" t="n">
-        <v>822.0713777531216</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="Y8" t="n">
-        <v>822.0713777531216</v>
+        <v>258.5080104335871</v>
       </c>
     </row>
     <row r="9">
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>106.7410566979059</v>
+        <v>322.9675731864187</v>
       </c>
       <c r="C9" t="n">
-        <v>106.7410566979059</v>
+        <v>322.9675731864187</v>
       </c>
       <c r="D9" t="n">
-        <v>106.7410566979059</v>
+        <v>322.9675731864187</v>
       </c>
       <c r="E9" t="n">
-        <v>106.7410566979059</v>
+        <v>163.7301181809632</v>
       </c>
       <c r="F9" t="n">
-        <v>106.7410566979059</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="G9" t="n">
-        <v>106.7410566979059</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H9" t="n">
-        <v>106.7410566979059</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I9" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J9" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K9" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L9" t="n">
-        <v>219.90409354896</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M9" t="n">
-        <v>219.90409354896</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N9" t="n">
-        <v>423.3667595428576</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="O9" t="n">
-        <v>626.8294255367553</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P9" t="n">
-        <v>809.472903150106</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q9" t="n">
         <v>822.0713777531216</v>
@@ -4919,16 +4919,16 @@
         <v>619.8847831118876</v>
       </c>
       <c r="V9" t="n">
-        <v>619.8847831118876</v>
+        <v>530.561355447308</v>
       </c>
       <c r="W9" t="n">
-        <v>412.2910008509983</v>
+        <v>530.561355447308</v>
       </c>
       <c r="X9" t="n">
-        <v>204.697218590109</v>
+        <v>530.561355447308</v>
       </c>
       <c r="Y9" t="n">
-        <v>204.697218590109</v>
+        <v>322.9675731864187</v>
       </c>
     </row>
     <row r="10">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>148.224788009872</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="C10" t="n">
-        <v>148.224788009872</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="D10" t="n">
-        <v>148.224788009872</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="E10" t="n">
-        <v>148.224788009872</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="F10" t="n">
-        <v>148.224788009872</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="G10" t="n">
-        <v>148.224788009872</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="H10" t="n">
-        <v>148.224788009872</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="I10" t="n">
         <v>133.2380658808762</v>
@@ -4980,34 +4980,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R10" t="n">
-        <v>148.224788009872</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="S10" t="n">
-        <v>148.224788009872</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="T10" t="n">
-        <v>148.224788009872</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="U10" t="n">
-        <v>148.224788009872</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="V10" t="n">
-        <v>148.224788009872</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="W10" t="n">
-        <v>148.224788009872</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="X10" t="n">
-        <v>148.224788009872</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="Y10" t="n">
-        <v>148.224788009872</v>
+        <v>133.2380658808762</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>443.6989813239244</v>
+      </c>
+      <c r="C11" t="n">
+        <v>443.6989813239244</v>
+      </c>
+      <c r="D11" t="n">
+        <v>443.6989813239244</v>
+      </c>
+      <c r="E11" t="n">
+        <v>443.6989813239244</v>
+      </c>
+      <c r="F11" t="n">
+        <v>443.6989813239244</v>
+      </c>
+      <c r="G11" t="n">
         <v>236.1051990630351</v>
-      </c>
-      <c r="C11" t="n">
-        <v>236.1051990630351</v>
-      </c>
-      <c r="D11" t="n">
-        <v>236.1051990630351</v>
-      </c>
-      <c r="E11" t="n">
-        <v>236.1051990630351</v>
-      </c>
-      <c r="F11" t="n">
-        <v>28.51141680214578</v>
-      </c>
-      <c r="G11" t="n">
-        <v>28.51141680214578</v>
       </c>
       <c r="H11" t="n">
         <v>28.51141680214578</v>
@@ -5050,13 +5050,13 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M11" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N11" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O11" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P11" t="n">
         <v>822.0713777531216</v>
@@ -5068,7 +5068,7 @@
         <v>660.5968149695918</v>
       </c>
       <c r="S11" t="n">
-        <v>453.0030327087026</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="T11" t="n">
         <v>453.0030327087026</v>
@@ -5086,7 +5086,7 @@
         <v>443.6989813239244</v>
       </c>
       <c r="Y11" t="n">
-        <v>236.1051990630351</v>
+        <v>443.6989813239244</v>
       </c>
     </row>
     <row r="12">
@@ -5096,49 +5096,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C12" t="n">
-        <v>232.4307839502161</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D12" t="n">
-        <v>83.4963742889648</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E12" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F12" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G12" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H12" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I12" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J12" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K12" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L12" t="n">
-        <v>345.2616536067974</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="M12" t="n">
-        <v>345.2616536067974</v>
+        <v>219.90409354896</v>
       </c>
       <c r="N12" t="n">
-        <v>548.724319600695</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O12" t="n">
-        <v>639.4279001397708</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P12" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q12" t="n">
         <v>822.0713777531216</v>
@@ -5153,19 +5153,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U12" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V12" t="n">
-        <v>822.0713777531216</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W12" t="n">
-        <v>614.4775954922324</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X12" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y12" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="13">
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I13" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K13" t="n">
         <v>16.44142755506243</v>
@@ -5232,19 +5232,19 @@
         <v>150.9737180453332</v>
       </c>
       <c r="U13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="14">
@@ -5254,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>443.6989813239244</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="C14" t="n">
-        <v>236.1051990630351</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="D14" t="n">
-        <v>28.51141680214578</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="E14" t="n">
-        <v>28.51141680214578</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="F14" t="n">
-        <v>28.51141680214578</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="G14" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H14" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I14" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J14" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K14" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L14" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M14" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N14" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O14" t="n">
         <v>732.4113224610707</v>
@@ -5317,13 +5317,13 @@
         <v>822.0713777531216</v>
       </c>
       <c r="W14" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="X14" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="Y14" t="n">
         <v>614.4775954922324</v>
-      </c>
-      <c r="X14" t="n">
-        <v>614.4775954922324</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>443.6989813239244</v>
       </c>
     </row>
     <row r="15">
@@ -5333,49 +5333,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>204.697218590109</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="C15" t="n">
-        <v>30.24418930898202</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="D15" t="n">
-        <v>30.24418930898202</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="E15" t="n">
-        <v>30.24418930898202</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="F15" t="n">
-        <v>30.24418930898202</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="G15" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H15" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I15" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J15" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K15" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L15" t="n">
-        <v>345.2616536067974</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="M15" t="n">
-        <v>548.724319600695</v>
+        <v>219.90409354896</v>
       </c>
       <c r="N15" t="n">
-        <v>752.1869855945927</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="O15" t="n">
-        <v>822.0713777531216</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P15" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q15" t="n">
         <v>822.0713777531216</v>
@@ -5387,22 +5387,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T15" t="n">
-        <v>619.8847831118876</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U15" t="n">
-        <v>619.8847831118876</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V15" t="n">
-        <v>619.8847831118876</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W15" t="n">
-        <v>412.2910008509983</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="X15" t="n">
-        <v>204.697218590109</v>
+        <v>224.7893424687375</v>
       </c>
       <c r="Y15" t="n">
-        <v>204.697218590109</v>
+        <v>17.19556020784815</v>
       </c>
     </row>
     <row r="16">
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I16" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K16" t="n">
         <v>16.44142755506243</v>
@@ -5463,25 +5463,25 @@
         <v>150.9737180453332</v>
       </c>
       <c r="S16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="C17" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="D17" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="E17" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="F17" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="G17" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="C17" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="D17" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="E17" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F17" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="G17" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
         <v>19.28114311021272</v>
@@ -5539,28 +5539,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X17" t="n">
         <v>749.627473042513</v>
       </c>
       <c r="Y17" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="18">
@@ -5570,49 +5570,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>277.6047704292607</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C18" t="n">
-        <v>277.6047704292607</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D18" t="n">
-        <v>128.6703607680094</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="L18" t="n">
-        <v>374.6018090363993</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M18" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N18" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5627,19 +5627,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V18" t="n">
-        <v>728.9050472788936</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W18" t="n">
-        <v>485.4562706347935</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X18" t="n">
-        <v>277.6047704292607</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y18" t="n">
-        <v>277.6047704292607</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="19">
@@ -5712,10 +5712,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y19" t="n">
         <v>19.28114311021272</v>
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C20" t="n">
         <v>19.28114311021272</v>
@@ -5773,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T20" t="n">
-        <v>738.7078125165641</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U20" t="n">
-        <v>506.1786963984129</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V20" t="n">
-        <v>262.7299197543128</v>
+        <v>467.067986854209</v>
       </c>
       <c r="W20" t="n">
-        <v>262.7299197543128</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="X20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="21">
@@ -5807,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>90.84473158927784</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C21" t="n">
-        <v>90.84473158927784</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D21" t="n">
-        <v>90.84473158927784</v>
+        <v>571.6739692052849</v>
       </c>
       <c r="E21" t="n">
-        <v>90.84473158927784</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5840,13 +5840,13 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
+        <v>249.2442489785619</v>
+      </c>
+      <c r="N21" t="n">
         <v>487.8483949674443</v>
       </c>
-      <c r="N21" t="n">
-        <v>656.0584510084244</v>
-      </c>
       <c r="O21" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
         <v>894.6625969973069</v>
@@ -5855,28 +5855,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V21" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W21" t="n">
-        <v>259.0600686093459</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X21" t="n">
-        <v>259.0600686093459</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y21" t="n">
-        <v>259.0600686093459</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="22">
@@ -5931,16 +5931,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
         <v>19.28114311021272</v>
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>477.1596022224361</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="C23" t="n">
-        <v>477.1596022224361</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="D23" t="n">
-        <v>477.1596022224361</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="E23" t="n">
-        <v>477.1596022224361</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="F23" t="n">
-        <v>477.1596022224361</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G23" t="n">
-        <v>233.7108255783361</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H23" t="n">
-        <v>233.7108255783361</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6019,22 +6019,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="V23" t="n">
-        <v>964.0571555106362</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="W23" t="n">
-        <v>964.0571555106362</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="X23" t="n">
-        <v>720.6083788665362</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="Y23" t="n">
-        <v>720.6083788665362</v>
+        <v>475.3318284112885</v>
       </c>
     </row>
     <row r="24">
@@ -6044,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6077,7 +6077,7 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>487.8483949674443</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N24" t="n">
         <v>542.809531908403</v>
@@ -6092,28 +6092,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T24" t="n">
-        <v>761.8705608694022</v>
+        <v>639.4596881921204</v>
       </c>
       <c r="U24" t="n">
-        <v>761.8705608694022</v>
+        <v>639.4596881921204</v>
       </c>
       <c r="V24" t="n">
-        <v>526.7184526376595</v>
+        <v>639.4596881921204</v>
       </c>
       <c r="W24" t="n">
-        <v>283.2696759935595</v>
+        <v>396.0109115480204</v>
       </c>
       <c r="X24" t="n">
-        <v>75.41817578802664</v>
+        <v>396.0109115480204</v>
       </c>
       <c r="Y24" t="n">
-        <v>19.28114311021272</v>
+        <v>188.2506127830665</v>
       </c>
     </row>
     <row r="25">
@@ -6171,19 +6171,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
         <v>19.28114311021272</v>
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>962.2293816994886</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C26" t="n">
-        <v>718.7806050553886</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D26" t="n">
-        <v>718.7806050553886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E26" t="n">
-        <v>718.7806050553886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F26" t="n">
-        <v>718.7806050553886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
         <v>19.28114311021272</v>
@@ -6256,22 +6256,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>962.2293816994886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>962.2293816994886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V26" t="n">
-        <v>962.2293816994886</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W26" t="n">
-        <v>962.2293816994886</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X26" t="n">
-        <v>962.2293816994886</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y26" t="n">
-        <v>962.2293816994886</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="27">
@@ -6311,19 +6311,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>304.2053859195205</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M27" t="n">
-        <v>304.2053859195205</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N27" t="n">
-        <v>542.809531908403</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>860.4511411346975</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6332,22 +6332,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U27" t="n">
-        <v>735.8335372470253</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V27" t="n">
-        <v>500.6814290152826</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="W27" t="n">
-        <v>257.2326523711826</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="X27" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y27" t="n">
         <v>19.28114311021272</v>
@@ -6408,19 +6408,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
         <v>19.28114311021272</v>
@@ -6442,19 +6442,19 @@
         <v>506.1786963984129</v>
       </c>
       <c r="C29" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D29" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6502,13 +6502,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W29" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X29" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y29" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="30">
@@ -6518,34 +6518,34 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>125.0774898247174</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C30" t="n">
-        <v>125.0774898247174</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
         <v>248.2447175439888</v>
@@ -6569,25 +6569,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>790.6398109613051</v>
+        <v>908.674255485608</v>
       </c>
       <c r="T30" t="n">
-        <v>588.4532163200711</v>
+        <v>706.487660844374</v>
       </c>
       <c r="U30" t="n">
-        <v>360.2295980564601</v>
+        <v>706.487660844374</v>
       </c>
       <c r="V30" t="n">
-        <v>125.0774898247174</v>
+        <v>471.3355526126313</v>
       </c>
       <c r="W30" t="n">
-        <v>125.0774898247174</v>
+        <v>227.8867759685313</v>
       </c>
       <c r="X30" t="n">
-        <v>125.0774898247174</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y30" t="n">
-        <v>125.0774898247174</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6688,7 +6688,7 @@
         <v>274.7999090013961</v>
       </c>
       <c r="F32" t="n">
-        <v>31.35113235729608</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G32" t="n">
         <v>31.35113235729608</v>
@@ -6739,10 +6739,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W32" t="n">
-        <v>761.6974622895962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X32" t="n">
-        <v>518.2486856454962</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y32" t="n">
         <v>518.2486856454962</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>55.04605772994853</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="C33" t="n">
-        <v>55.04605772994853</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D33" t="n">
-        <v>55.04605772994853</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>234.810827406191</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M33" t="n">
-        <v>473.4149733950735</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N33" t="n">
-        <v>712.019119383956</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T33" t="n">
-        <v>761.8705608694022</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U33" t="n">
-        <v>533.6469426057913</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V33" t="n">
-        <v>298.4948343740486</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W33" t="n">
-        <v>55.04605772994853</v>
+        <v>446.0215048700907</v>
       </c>
       <c r="X33" t="n">
-        <v>55.04605772994853</v>
+        <v>238.1700046645579</v>
       </c>
       <c r="Y33" t="n">
-        <v>55.04605772994853</v>
+        <v>194.4883050441255</v>
       </c>
     </row>
     <row r="34">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
         <v>19.28114311021272</v>
@@ -6876,34 +6876,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C35" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D35" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
         <v>19.28114311021272</v>
@@ -6973,16 +6973,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W35" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X35" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y35" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="36">
@@ -6992,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>728.9050472788936</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="C36" t="n">
-        <v>554.4520179977666</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="D36" t="n">
-        <v>554.4520179977666</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="E36" t="n">
-        <v>395.2145629923111</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="F36" t="n">
-        <v>362.4348659156472</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="G36" t="n">
         <v>223.7040404982626</v>
@@ -7028,13 +7028,13 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N36" t="n">
-        <v>712.019119383956</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7055,13 +7055,13 @@
         <v>728.9050472788936</v>
       </c>
       <c r="W36" t="n">
-        <v>728.9050472788936</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X36" t="n">
-        <v>728.9050472788936</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y36" t="n">
-        <v>728.9050472788936</v>
+        <v>277.6047704292607</v>
       </c>
     </row>
     <row r="37">
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
         <v>19.28114311021272</v>
@@ -7134,13 +7134,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>749.627473042513</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C38" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D38" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E38" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F38" t="n">
-        <v>506.1786963984129</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
         <v>19.28114311021272</v>
@@ -7195,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V38" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W38" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X38" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y38" t="n">
-        <v>749.627473042513</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>512.8480801015824</v>
+        <v>346.2587618989155</v>
       </c>
       <c r="C39" t="n">
-        <v>338.3950508204554</v>
+        <v>171.8057326177884</v>
       </c>
       <c r="D39" t="n">
-        <v>338.3950508204554</v>
+        <v>171.8057326177884</v>
       </c>
       <c r="E39" t="n">
-        <v>179.1575958149999</v>
+        <v>171.8057326177884</v>
       </c>
       <c r="F39" t="n">
-        <v>32.62303784188484</v>
+        <v>171.8057326177884</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I39" t="n">
         <v>19.28114311021272</v>
@@ -7256,22 +7256,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N39" t="n">
-        <v>712.019119383956</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O39" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7283,22 +7283,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U39" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V39" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W39" t="n">
-        <v>720.6083788665362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="X39" t="n">
-        <v>720.6083788665362</v>
+        <v>554.0190606638694</v>
       </c>
       <c r="Y39" t="n">
-        <v>512.8480801015824</v>
+        <v>346.2587618989155</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>199.2900309704538</v>
+        <v>431.628992076841</v>
       </c>
       <c r="C41" t="n">
-        <v>199.2900309704538</v>
+        <v>431.628992076841</v>
       </c>
       <c r="D41" t="n">
-        <v>199.2900309704538</v>
+        <v>431.628992076841</v>
       </c>
       <c r="E41" t="n">
-        <v>199.2900309704538</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F41" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G41" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H41" t="n">
         <v>16.44142755506243</v>
@@ -7420,7 +7420,7 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M41" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N41" t="n">
         <v>583.2163723184226</v>
@@ -7441,22 +7441,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T41" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U41" t="n">
-        <v>614.4775954922324</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V41" t="n">
-        <v>406.8838132313431</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="W41" t="n">
-        <v>199.2900309704538</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="X41" t="n">
-        <v>199.2900309704538</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="Y41" t="n">
-        <v>199.2900309704538</v>
+        <v>639.2227743377304</v>
       </c>
     </row>
     <row r="42">
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>238.668476211275</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="C42" t="n">
-        <v>64.21544693014803</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="D42" t="n">
-        <v>16.44142755506243</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="E42" t="n">
-        <v>16.44142755506243</v>
+        <v>247.6463582258876</v>
       </c>
       <c r="F42" t="n">
-        <v>16.44142755506243</v>
+        <v>247.6463582258876</v>
       </c>
       <c r="G42" t="n">
-        <v>16.44142755506243</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="H42" t="n">
         <v>16.44142755506243</v>
@@ -7508,7 +7508,7 @@
         <v>752.1869855945927</v>
       </c>
       <c r="P42" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q42" t="n">
         <v>822.0713777531216</v>
@@ -7529,7 +7529,7 @@
         <v>822.0713777531216</v>
       </c>
       <c r="W42" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X42" t="n">
         <v>614.4775954922324</v>
@@ -7593,19 +7593,19 @@
         <v>150.9737180453332</v>
       </c>
       <c r="R43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W43" t="n">
         <v>16.44142755506243</v>
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>236.1051990630351</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C44" t="n">
-        <v>236.1051990630351</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D44" t="n">
-        <v>28.51141680214578</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E44" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F44" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G44" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H44" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I44" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J44" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K44" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L44" t="n">
-        <v>176.2910403306274</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M44" t="n">
         <v>379.753706324525</v>
@@ -7669,31 +7669,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q44" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R44" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S44" t="n">
-        <v>660.5968149695918</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="T44" t="n">
-        <v>453.0030327087026</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="U44" t="n">
-        <v>245.4092504478133</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="V44" t="n">
-        <v>245.4092504478133</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="W44" t="n">
-        <v>245.4092504478133</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X44" t="n">
-        <v>245.4092504478133</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y44" t="n">
-        <v>236.1051990630351</v>
+        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="45">
@@ -7703,7 +7703,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>191.6485894889752</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="C45" t="n">
         <v>17.19556020784815</v>
@@ -7739,10 +7739,10 @@
         <v>423.3667595428576</v>
       </c>
       <c r="N45" t="n">
-        <v>626.8294255367553</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O45" t="n">
-        <v>822.0713777531216</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P45" t="n">
         <v>822.0713777531216</v>
@@ -7754,25 +7754,25 @@
         <v>720.9018483060073</v>
       </c>
       <c r="S45" t="n">
-        <v>720.9018483060073</v>
+        <v>634.5697193708606</v>
       </c>
       <c r="T45" t="n">
-        <v>720.9018483060073</v>
+        <v>432.3831247296267</v>
       </c>
       <c r="U45" t="n">
-        <v>513.308066045118</v>
+        <v>224.7893424687375</v>
       </c>
       <c r="V45" t="n">
-        <v>513.308066045118</v>
+        <v>224.7893424687375</v>
       </c>
       <c r="W45" t="n">
-        <v>305.7142837842288</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="X45" t="n">
-        <v>305.7142837842288</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="Y45" t="n">
-        <v>305.7142837842288</v>
+        <v>17.19556020784815</v>
       </c>
     </row>
     <row r="46">
@@ -7839,10 +7839,10 @@
         <v>150.9737180453332</v>
       </c>
       <c r="U46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W46" t="n">
         <v>16.44142755506243</v>
@@ -7981,10 +7981,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>290.2250192095839</v>
       </c>
       <c r="L2" t="n">
-        <v>293.1751087726566</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
         <v>435.8640776655532</v>
@@ -7996,7 +7996,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8063,13 +8063,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>265.6729592778915</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M3" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N3" t="n">
-        <v>336.8595565216137</v>
+        <v>258.4602915813506</v>
       </c>
       <c r="O3" t="n">
         <v>348.1140888827248</v>
@@ -8218,13 +8218,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>435.8640776655532</v>
+        <v>401.9436843039723</v>
       </c>
       <c r="N5" t="n">
         <v>434.9309080348713</v>
@@ -8233,7 +8233,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>301.368163919873</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8300,7 +8300,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>209.1446748894994</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
         <v>347.6518783602987</v>
@@ -8312,7 +8312,7 @@
         <v>348.1140888827248</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>204.5647025239554</v>
       </c>
       <c r="Q6" t="n">
         <v>139.9817740860215</v>
@@ -8461,16 +8461,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N8" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O8" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8534,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N9" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O9" t="n">
-        <v>348.1140888827248</v>
+        <v>213.1865395540696</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>152.7075060082595</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8698,16 +8698,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N11" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O11" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8771,25 +8771,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N12" t="n">
-        <v>336.8595565216137</v>
+        <v>279.489774794024</v>
       </c>
       <c r="O12" t="n">
-        <v>234.2160227667432</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8929,19 +8929,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>415.4335334139435</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N14" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -9008,10 +9008,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>347.6518783602987</v>
@@ -9020,13 +9020,13 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O15" t="n">
-        <v>213.1865395540696</v>
+        <v>290.7443071551351</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9245,16 +9245,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>184.6294155606472</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9488,16 +9488,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>301.2508595994748</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>369.031319612638</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9725,10 +9725,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N24" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9959,10 +9959,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>299.7328472056018</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
@@ -9971,10 +9971,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>168.5314335381781</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10193,10 +10193,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>243.2069195535496</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M30" t="n">
         <v>383.1483227996774</v>
@@ -10430,10 +10430,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>229.6373335557741</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M33" t="n">
         <v>383.1483227996774</v>
@@ -10442,13 +10442,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10676,16 +10676,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10825,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10904,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10913,16 +10913,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>357.7767872515269</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11068,10 +11068,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N41" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11156,10 +11156,10 @@
         <v>348.1140888827248</v>
       </c>
       <c r="P42" t="n">
-        <v>204.5647025239554</v>
+        <v>134.4691888741278</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11299,13 +11299,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>397.2306702988408</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N44" t="n">
         <v>434.9309080348713</v>
@@ -11387,13 +11387,13 @@
         <v>347.6518783602987</v>
       </c>
       <c r="N45" t="n">
-        <v>336.8595565216137</v>
+        <v>144.0674440055713</v>
       </c>
       <c r="O45" t="n">
-        <v>339.8103375922893</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -22546,31 +22546,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>415.302737515135</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>308.3238026756795</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22591,31 +22591,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>17.57800512585095</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>143.7231242791326</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>164.2132562401886</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22625,31 +22625,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>19.14461131358425</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>27.28274271114486</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>46.1771387226392</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.1648513390239543</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22704,31 +22704,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9909793584588</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>162.2271725074396</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22752,28 +22752,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>155.2593996044852</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22783,31 +22783,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>201.7137242822431</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>159.7550473327271</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22828,31 +22828,31 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>164.2132562401886</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>180.7200942177732</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22865,13 +22865,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -22883,10 +22883,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>53.16906829311649</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22941,31 +22941,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9909793584588</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>162.2271725074396</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22989,28 +22989,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>155.2593996044852</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9455894282815</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3190293564909</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23020,31 +23020,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>201.358201303431</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>209.7848930768546</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>133.9569576774867</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>29.45577218916847</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23065,31 +23065,31 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23099,31 +23099,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>69.55658337658629</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>46.1771387226392</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0.2551407651970692</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23178,28 +23178,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9909793584588</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>162.2271725074396</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>140.6136200195524</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23223,31 +23223,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23269,13 +23269,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H11" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I11" t="n">
         <v>210.4758895704059</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U11" t="n">
         <v>242.1346420369061</v>
@@ -23326,7 +23326,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23339,13 +23339,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>92.00727451509546</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
@@ -23360,7 +23360,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23393,19 +23393,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W12" t="n">
-        <v>46.1771387226392</v>
+        <v>70.67486577968216</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23436,13 +23436,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U13" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23500,16 +23500,16 @@
         <v>159.7550473327271</v>
       </c>
       <c r="D14" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>234.2826201338976</v>
       </c>
       <c r="H14" t="n">
         <v>339.4748021157671</v>
@@ -23518,7 +23518,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23557,13 +23557,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>217.1671106294287</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="15">
@@ -23576,7 +23576,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -23588,7 +23588,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>123.6787830268302</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
         <v>112.2354442364965</v>
@@ -23597,7 +23597,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23627,10 +23627,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23639,10 +23639,10 @@
         <v>46.1771387226392</v>
       </c>
       <c r="X15" t="n">
-        <v>0.2551407651970692</v>
+        <v>25.49945914849792</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="16">
@@ -23673,13 +23673,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160426</v>
       </c>
       <c r="T16" t="n">
         <v>227.9455894282815</v>
@@ -23731,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -23743,13 +23743,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
         <v>210.4758895704059</v>
@@ -23779,10 +23779,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>146.6038018839531</v>
       </c>
       <c r="T17" t="n">
         <v>223.0958495641314</v>
@@ -23797,10 +23797,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>157.445715035027</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23816,10 +23816,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>49.34975497418223</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
@@ -23834,7 +23834,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23867,19 +23867,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>10.68069428326055</v>
+        <v>187.3109724219401</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23952,13 +23952,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="20">
@@ -23971,7 +23971,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -24013,7 +24013,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
@@ -24022,19 +24022,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>21.14182795086677</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>167.4364142495718</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24047,31 +24047,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>95.56758059204344</v>
       </c>
       <c r="F21" t="n">
-        <v>74.22125979910942</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24095,22 +24095,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -24171,10 +24171,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q22" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>177.2933913771695</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24183,7 +24183,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24220,16 +24220,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I23" t="n">
-        <v>10.13979328157632</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24259,19 +24259,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>221.2863534910952</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24284,7 +24284,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -24308,7 +24308,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24332,28 +24332,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>150.654241305972</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>150.1070334262686</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24411,7 +24411,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24426,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24448,7 +24448,7 @@
         <v>124.2586028933485</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24460,10 +24460,10 @@
         <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -24496,13 +24496,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>221.2863534910952</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24572,7 +24572,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
@@ -24587,10 +24587,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>141.8841621389552</v>
       </c>
       <c r="Y27" t="n">
-        <v>175.8836868124217</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24648,7 +24648,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24663,7 +24663,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24679,16 +24679,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>170.4484560200385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E29" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -24697,7 +24697,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24742,7 +24742,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X29" t="n">
         <v>128.71681180081</v>
@@ -24764,7 +24764,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>42.70668231727912</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
@@ -24782,7 +24782,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24809,22 +24809,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>116.8541000790599</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>34.80401177309076</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H31" t="n">
         <v>162.2271725074396</v>
@@ -24894,7 +24894,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24928,10 +24928,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
@@ -24979,13 +24979,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>148.9048724285834</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>128.71681180081</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>185.9018423672239</v>
       </c>
     </row>
     <row r="33">
@@ -24998,13 +24998,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>122.2378149818625</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -25019,7 +25019,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25043,28 +25043,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>162.4378131530763</v>
       </c>
     </row>
     <row r="34">
@@ -25095,7 +25095,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I34" t="n">
-        <v>24.98494807699674</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J34" t="n">
         <v>93.35918011667277</v>
@@ -25116,7 +25116,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
         <v>86.16204325169439</v>
@@ -25134,7 +25134,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25156,19 +25156,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D35" t="n">
-        <v>142.3976559772408</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E35" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25213,13 +25213,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>136.9555830739709</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25235,19 +25235,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>112.6173122874866</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>83.98179453152258</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -25295,10 +25295,10 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25329,7 +25329,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H37" t="n">
-        <v>29.04020492207155</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I37" t="n">
         <v>155.4504749272583</v>
@@ -25374,7 +25374,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25393,7 +25393,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25402,13 +25402,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
-        <v>174.288448637476</v>
+        <v>203.0173518716929</v>
       </c>
       <c r="H38" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
@@ -25435,19 +25435,19 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>6.725383157348119</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25459,7 +25459,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="39">
@@ -25478,19 +25478,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>124.1350413788552</v>
+        <v>75.74080640212577</v>
       </c>
       <c r="H39" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -25523,7 +25523,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
@@ -25532,10 +25532,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25602,7 +25602,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25614,7 +25614,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25636,16 +25636,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G41" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>158.4546847345297</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
@@ -25681,16 +25681,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>42.075732182894</v>
       </c>
       <c r="U41" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25706,25 +25706,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>100.148786383304</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>20.68608003559019</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
@@ -25769,10 +25769,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y42" t="n">
         <v>0.1648513390239543</v>
@@ -25833,7 +25833,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
@@ -25848,7 +25848,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25870,10 +25870,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -25888,7 +25888,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25909,22 +25909,22 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T44" t="n">
-        <v>17.57800512585095</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
         <v>45.82780846955609</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>146.7321410888975</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -25933,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>377.0269277851232</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25943,10 +25943,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>53.60814629756629</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -25994,10 +25994,10 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>86.21436345804263</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>20.42353764269441</v>
@@ -26079,13 +26079,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>386557.236662629</v>
+        <v>993189.0200959332</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>386557.236662629</v>
+        <v>993189.0200959332</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>386557.2366626289</v>
+        <v>993189.0200959332</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>386557.236662629</v>
+        <v>386557.2366626291</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>407153.1926468364</v>
+        <v>407153.1926468363</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>407153.1926468364</v>
+        <v>407153.1926468363</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>386557.236662629</v>
+        <v>386557.2366626291</v>
       </c>
     </row>
     <row r="16">
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>173533.4060184248</v>
+        <v>451572.9734253559</v>
       </c>
       <c r="C2" t="n">
-        <v>173533.4060184248</v>
+        <v>451572.9734253559</v>
       </c>
       <c r="D2" t="n">
-        <v>173533.4060184248</v>
+        <v>451572.973425356</v>
       </c>
       <c r="E2" t="n">
         <v>173533.4060184247</v>
@@ -26331,7 +26331,7 @@
         <v>182776.7397844656</v>
       </c>
       <c r="H2" t="n">
-        <v>182776.7397844657</v>
+        <v>182776.7397844656</v>
       </c>
       <c r="I2" t="n">
         <v>182776.7397844656</v>
@@ -26340,7 +26340,7 @@
         <v>182776.7397844656</v>
       </c>
       <c r="K2" t="n">
-        <v>182776.7397844657</v>
+        <v>182776.7397844656</v>
       </c>
       <c r="L2" t="n">
         <v>182776.7397844656</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8092.707817725995</v>
+        <v>296630.5819651741</v>
       </c>
       <c r="C4" t="n">
-        <v>8092.707817725995</v>
+        <v>296630.5819651741</v>
       </c>
       <c r="D4" t="n">
-        <v>8092.707817725995</v>
+        <v>296630.5819651741</v>
       </c>
       <c r="E4" t="n">
         <v>8092.707817725995</v>
@@ -26453,7 +26453,7 @@
         <v>8547.111069342402</v>
       </c>
       <c r="N4" t="n">
-        <v>8547.111069342402</v>
+        <v>8547.111069342403</v>
       </c>
       <c r="O4" t="n">
         <v>8092.707817725994</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>50443.85667716149</v>
+        <v>39945.54993664454</v>
       </c>
       <c r="C6" t="n">
-        <v>119317.6132588513</v>
+        <v>108819.3065183344</v>
       </c>
       <c r="D6" t="n">
-        <v>119317.6132588513</v>
+        <v>108819.3065183345</v>
       </c>
       <c r="E6" t="n">
-        <v>152945.2132588513</v>
+        <v>140307.0511039908</v>
       </c>
       <c r="F6" t="n">
-        <v>152945.2132588513</v>
+        <v>140307.0511039908</v>
       </c>
       <c r="G6" t="n">
-        <v>149846.9169771945</v>
+        <v>137628.906357154</v>
       </c>
       <c r="H6" t="n">
-        <v>159575.9599513616</v>
+        <v>147357.9493313211</v>
       </c>
       <c r="I6" t="n">
-        <v>159575.9599513616</v>
+        <v>147357.9493313211</v>
       </c>
       <c r="J6" t="n">
-        <v>105803.4490611521</v>
+        <v>93585.43844111166</v>
       </c>
       <c r="K6" t="n">
-        <v>159575.9599513616</v>
+        <v>147357.9493313211</v>
       </c>
       <c r="L6" t="n">
-        <v>159575.9599513616</v>
+        <v>147357.9493313211</v>
       </c>
       <c r="M6" t="n">
-        <v>159575.9599513615</v>
+        <v>147357.9493313211</v>
       </c>
       <c r="N6" t="n">
-        <v>159575.9599513615</v>
+        <v>147357.9493313211</v>
       </c>
       <c r="O6" t="n">
-        <v>152945.2132588513</v>
+        <v>140307.0511039908</v>
       </c>
       <c r="P6" t="n">
-        <v>152945.2132588513</v>
+        <v>140307.0511039908</v>
       </c>
     </row>
   </sheetData>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>193.6878666036893</v>
       </c>
     </row>
     <row r="3">
@@ -27457,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>59.89804767754163</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27469,16 +27469,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27508,25 +27508,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27536,31 +27536,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27578,34 +27578,34 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>114.792179629552</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>4.958045132125505</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>30.54577751176708</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27694,10 +27694,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -27709,13 +27709,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>90.99837905427822</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,25 +27745,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27773,34 +27773,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27818,31 +27818,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>95.24412853877564</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>4.958045132125505</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>30.54577751176708</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27931,13 +27931,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -27946,13 +27946,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,28 +27979,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>144.3703937614914</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="10">
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28052,34 +28052,34 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>159.7350957343571</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -34701,10 +34701,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>104.0555615261842</v>
+        <v>70.13516816460341</v>
       </c>
       <c r="L2" t="n">
-        <v>57.40869380266933</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
         <v>205.5178444382804</v>
@@ -34716,7 +34716,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34783,13 +34783,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>127.1185794980173</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M3" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N3" t="n">
-        <v>205.5178444382804</v>
+        <v>127.1185794980173</v>
       </c>
       <c r="O3" t="n">
         <v>205.5178444382804</v>
@@ -34938,13 +34938,13 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>205.5178444382804</v>
+        <v>171.5974510766996</v>
       </c>
       <c r="N5" t="n">
         <v>205.5178444382804</v>
@@ -34953,7 +34953,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
-        <v>70.1351681646035</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35020,7 +35020,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>70.5902951096252</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>205.5178444382804</v>
@@ -35032,7 +35032,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35181,16 +35181,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N8" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O8" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N9" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O9" t="n">
-        <v>205.5178444382804</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>12.72573192223796</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35418,16 +35418,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N11" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O11" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
       <c r="N12" t="n">
+        <v>148.1480627106907</v>
+      </c>
+      <c r="O12" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="O12" t="n">
-        <v>91.61977832229879</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35649,19 +35649,19 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L14" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>185.0873001866707</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N14" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O14" t="n">
-        <v>150.7019698410586</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P14" t="n">
         <v>90.5657124162131</v>
@@ -35728,10 +35728,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>205.5178444382804</v>
@@ -35740,13 +35740,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O15" t="n">
-        <v>70.5902951096252</v>
+        <v>148.1480627106907</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35965,16 +35965,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
@@ -35983,7 +35983,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36208,16 +36208,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N21" t="n">
-        <v>169.9091475161415</v>
-      </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
         <v>70.09551364982758</v>
@@ -36445,10 +36445,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
+        <v>55.51629994036225</v>
+      </c>
+      <c r="N24" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N24" t="n">
-        <v>55.51629994036225</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36679,10 +36679,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>161.1784674257276</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
@@ -36691,10 +36691,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36913,10 +36913,10 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>104.6525397736754</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M30" t="n">
         <v>241.0142888776591</v>
@@ -37150,10 +37150,10 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>91.0829537758999</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M33" t="n">
         <v>241.0142888776591</v>
@@ -37162,13 +37162,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37396,16 +37396,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37624,7 +37624,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
@@ -37633,16 +37633,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>226.4350751681936</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37788,10 +37788,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="N41" t="n">
         <v>81.03173866048648</v>
-      </c>
-      <c r="N41" t="n">
-        <v>205.5178444382804</v>
       </c>
       <c r="O41" t="n">
         <v>150.7019698410586</v>
@@ -37876,10 +37876,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="P42" t="n">
-        <v>70.5902951096252</v>
+        <v>0.494781459797586</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L44" t="n">
-        <v>161.4642553288535</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N44" t="n">
         <v>205.5178444382804</v>
@@ -38107,13 +38107,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N45" t="n">
+        <v>12.72573192223801</v>
+      </c>
+      <c r="O45" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="O45" t="n">
-        <v>197.2140931478448</v>
-      </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
